--- a/5. WS/1. Bộ phận bảo hành/1. Thực hiện sửa chữa bảo hành/nam2023/Thang1/02.XuLyBH/XLBH2301_LapDat.xlsx
+++ b/5. WS/1. Bộ phận bảo hành/1. Thực hiện sửa chữa bảo hành/nam2023/Thang1/02.XuLyBH/XLBH2301_LapDat.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-15" yWindow="4035" windowWidth="10320" windowHeight="4065" activeTab="1"/>
+    <workbookView xWindow="-15" yWindow="4035" windowWidth="10320" windowHeight="4065"/>
   </bookViews>
   <sheets>
     <sheet name="TG102V" sheetId="38" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="244" uniqueCount="82">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="314" uniqueCount="83">
   <si>
     <t>STT</t>
   </si>
@@ -243,9 +243,6 @@
     <t>Thể</t>
   </si>
   <si>
-    <t>SF, NCFW</t>
-  </si>
-  <si>
     <t>Nâng cấp khay sim+FW</t>
   </si>
   <si>
@@ -280,6 +277,12 @@
   </si>
   <si>
     <t>Restore thiết bị</t>
+  </si>
+  <si>
+    <t xml:space="preserve">W.1.00.---01.181101 </t>
+  </si>
+  <si>
+    <t>Test lại thiết bị hoạt động bình thường</t>
   </si>
 </sst>
 </file>
@@ -688,6 +691,30 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -703,38 +730,14 @@
     <xf numFmtId="0" fontId="7" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255" wrapText="1"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1042,8 +1045,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:X57"/>
   <sheetViews>
-    <sheetView showZeros="0" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I7" sqref="I7"/>
+    <sheetView showZeros="0" tabSelected="1" topLeftCell="L1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="M9" sqref="M9:R9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1075,43 +1078,43 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="77" t="s">
+      <c r="A1" s="69" t="s">
         <v>61</v>
       </c>
-      <c r="B1" s="77"/>
-      <c r="C1" s="77"/>
-      <c r="D1" s="77"/>
-      <c r="E1" s="77"/>
-      <c r="F1" s="77"/>
-      <c r="G1" s="77"/>
-      <c r="H1" s="77"/>
-      <c r="I1" s="77"/>
-      <c r="J1" s="77"/>
-      <c r="K1" s="77"/>
-      <c r="L1" s="77"/>
-      <c r="M1" s="77"/>
-      <c r="N1" s="77"/>
-      <c r="O1" s="77"/>
-      <c r="P1" s="77"/>
-      <c r="Q1" s="77"/>
-      <c r="R1" s="77"/>
-      <c r="S1" s="77"/>
-      <c r="T1" s="77"/>
-      <c r="U1" s="77"/>
-      <c r="V1" s="77"/>
+      <c r="B1" s="69"/>
+      <c r="C1" s="69"/>
+      <c r="D1" s="69"/>
+      <c r="E1" s="69"/>
+      <c r="F1" s="69"/>
+      <c r="G1" s="69"/>
+      <c r="H1" s="69"/>
+      <c r="I1" s="69"/>
+      <c r="J1" s="69"/>
+      <c r="K1" s="69"/>
+      <c r="L1" s="69"/>
+      <c r="M1" s="69"/>
+      <c r="N1" s="69"/>
+      <c r="O1" s="69"/>
+      <c r="P1" s="69"/>
+      <c r="Q1" s="69"/>
+      <c r="R1" s="69"/>
+      <c r="S1" s="69"/>
+      <c r="T1" s="69"/>
+      <c r="U1" s="69"/>
+      <c r="V1" s="69"/>
       <c r="W1" s="45"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="78" t="s">
+      <c r="A2" s="70" t="s">
         <v>63</v>
       </c>
-      <c r="B2" s="79"/>
-      <c r="C2" s="79"/>
-      <c r="D2" s="79"/>
-      <c r="E2" s="80" t="s">
-        <v>76</v>
-      </c>
-      <c r="F2" s="80"/>
+      <c r="B2" s="71"/>
+      <c r="C2" s="71"/>
+      <c r="D2" s="71"/>
+      <c r="E2" s="72" t="s">
+        <v>75</v>
+      </c>
+      <c r="F2" s="72"/>
       <c r="G2" s="4"/>
       <c r="H2" s="20"/>
       <c r="I2" s="51"/>
@@ -1156,58 +1159,58 @@
       <c r="W3" s="26"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="81" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="76" t="s">
+      <c r="A4" s="73" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="68" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="76"/>
-      <c r="D4" s="76"/>
-      <c r="E4" s="76"/>
-      <c r="F4" s="76"/>
-      <c r="G4" s="76"/>
-      <c r="H4" s="76"/>
-      <c r="I4" s="76"/>
-      <c r="J4" s="76" t="s">
+      <c r="C4" s="68"/>
+      <c r="D4" s="68"/>
+      <c r="E4" s="68"/>
+      <c r="F4" s="68"/>
+      <c r="G4" s="68"/>
+      <c r="H4" s="68"/>
+      <c r="I4" s="68"/>
+      <c r="J4" s="68" t="s">
         <v>11</v>
       </c>
-      <c r="K4" s="76"/>
-      <c r="L4" s="73" t="s">
+      <c r="K4" s="68"/>
+      <c r="L4" s="74" t="s">
         <v>6</v>
       </c>
-      <c r="M4" s="73" t="s">
+      <c r="M4" s="74" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="73" t="s">
+      <c r="N4" s="74" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="73" t="s">
+      <c r="O4" s="74" t="s">
         <v>7</v>
       </c>
-      <c r="P4" s="71" t="s">
+      <c r="P4" s="79" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="73" t="s">
+      <c r="Q4" s="74" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="73" t="s">
+      <c r="R4" s="74" t="s">
         <v>53</v>
       </c>
-      <c r="S4" s="75" t="s">
+      <c r="S4" s="81" t="s">
         <v>54</v>
       </c>
       <c r="T4" s="26"/>
-      <c r="U4" s="76" t="s">
+      <c r="U4" s="68" t="s">
         <v>39</v>
       </c>
-      <c r="V4" s="76" t="s">
+      <c r="V4" s="68" t="s">
         <v>53</v>
       </c>
       <c r="W4" s="46"/>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="81"/>
+      <c r="A5" s="73"/>
       <c r="B5" s="65" t="s">
         <v>1</v>
       </c>
@@ -1238,17 +1241,17 @@
       <c r="K5" s="65" t="s">
         <v>13</v>
       </c>
-      <c r="L5" s="74"/>
-      <c r="M5" s="74"/>
-      <c r="N5" s="74"/>
-      <c r="O5" s="74"/>
-      <c r="P5" s="72"/>
-      <c r="Q5" s="74"/>
-      <c r="R5" s="74"/>
-      <c r="S5" s="75"/>
+      <c r="L5" s="75"/>
+      <c r="M5" s="75"/>
+      <c r="N5" s="75"/>
+      <c r="O5" s="75"/>
+      <c r="P5" s="80"/>
+      <c r="Q5" s="75"/>
+      <c r="R5" s="75"/>
+      <c r="S5" s="81"/>
       <c r="T5" s="26"/>
-      <c r="U5" s="76"/>
-      <c r="V5" s="76"/>
+      <c r="U5" s="68"/>
+      <c r="V5" s="68"/>
       <c r="W5" s="46"/>
     </row>
     <row r="6" spans="1:23" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -1258,7 +1261,9 @@
       <c r="B6" s="63">
         <v>44932</v>
       </c>
-      <c r="C6" s="63"/>
+      <c r="C6" s="63">
+        <v>44936</v>
+      </c>
       <c r="D6" s="37" t="s">
         <v>66</v>
       </c>
@@ -1275,7 +1280,7 @@
       <c r="K6" s="39"/>
       <c r="L6" s="39"/>
       <c r="M6" s="39" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="N6" s="1"/>
       <c r="O6" s="39" t="s">
@@ -1285,16 +1290,16 @@
         <v>68</v>
       </c>
       <c r="Q6" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="R6" s="37" t="s">
         <v>71</v>
       </c>
-      <c r="R6" s="37" t="s">
+      <c r="S6" s="3" t="s">
         <v>72</v>
       </c>
-      <c r="S6" s="3" t="s">
-        <v>73</v>
-      </c>
       <c r="T6" s="64"/>
-      <c r="U6" s="68" t="s">
+      <c r="U6" s="76" t="s">
         <v>18</v>
       </c>
       <c r="V6" s="3" t="s">
@@ -1309,7 +1314,9 @@
       <c r="B7" s="63">
         <v>44932</v>
       </c>
-      <c r="C7" s="63"/>
+      <c r="C7" s="63">
+        <v>44936</v>
+      </c>
       <c r="D7" s="37" t="s">
         <v>66</v>
       </c>
@@ -1322,15 +1329,15 @@
       </c>
       <c r="H7" s="37"/>
       <c r="I7" s="54" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="J7" s="39" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="K7" s="39"/>
       <c r="L7" s="39"/>
       <c r="M7" s="39" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="N7" s="1"/>
       <c r="O7" s="39" t="s">
@@ -1340,16 +1347,16 @@
         <v>68</v>
       </c>
       <c r="Q7" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="R7" s="37" t="s">
         <v>71</v>
       </c>
-      <c r="R7" s="37" t="s">
+      <c r="S7" s="3" t="s">
         <v>72</v>
       </c>
-      <c r="S7" s="3" t="s">
-        <v>73</v>
-      </c>
       <c r="T7" s="64"/>
-      <c r="U7" s="69"/>
+      <c r="U7" s="77"/>
       <c r="V7" s="3" t="s">
         <v>35</v>
       </c>
@@ -1359,26 +1366,50 @@
       <c r="A8" s="3">
         <v>3</v>
       </c>
-      <c r="B8" s="63"/>
-      <c r="C8" s="63"/>
-      <c r="D8" s="37"/>
-      <c r="E8" s="38"/>
+      <c r="B8" s="63">
+        <v>44956</v>
+      </c>
+      <c r="C8" s="63">
+        <v>44957</v>
+      </c>
+      <c r="D8" s="37" t="s">
+        <v>66</v>
+      </c>
+      <c r="E8" s="38">
+        <v>868926033932457</v>
+      </c>
       <c r="F8" s="49"/>
-      <c r="G8" s="37"/>
+      <c r="G8" s="37" t="s">
+        <v>65</v>
+      </c>
       <c r="H8" s="12"/>
-      <c r="I8" s="54"/>
-      <c r="J8" s="39"/>
+      <c r="I8" s="54" t="s">
+        <v>78</v>
+      </c>
+      <c r="J8" s="39" t="s">
+        <v>73</v>
+      </c>
       <c r="K8" s="39"/>
       <c r="L8" s="39"/>
-      <c r="M8" s="39"/>
+      <c r="M8" s="39" t="s">
+        <v>82</v>
+      </c>
       <c r="N8" s="1"/>
-      <c r="O8" s="39"/>
-      <c r="P8" s="1"/>
-      <c r="Q8" s="2"/>
-      <c r="R8" s="37"/>
+      <c r="O8" s="39" t="s">
+        <v>67</v>
+      </c>
+      <c r="P8" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="Q8" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="R8" s="37" t="s">
+        <v>25</v>
+      </c>
       <c r="S8" s="3"/>
       <c r="T8" s="64"/>
-      <c r="U8" s="69"/>
+      <c r="U8" s="77"/>
       <c r="V8" s="3" t="s">
         <v>21</v>
       </c>
@@ -1388,26 +1419,52 @@
       <c r="A9" s="3">
         <v>4</v>
       </c>
-      <c r="B9" s="59"/>
-      <c r="C9" s="63"/>
-      <c r="D9" s="37"/>
-      <c r="E9" s="38"/>
+      <c r="B9" s="63">
+        <v>44956</v>
+      </c>
+      <c r="C9" s="63">
+        <v>44957</v>
+      </c>
+      <c r="D9" s="37" t="s">
+        <v>66</v>
+      </c>
+      <c r="E9" s="38">
+        <v>868926033938751</v>
+      </c>
       <c r="F9" s="49"/>
-      <c r="G9" s="37"/>
+      <c r="G9" s="37" t="s">
+        <v>65</v>
+      </c>
       <c r="H9" s="1"/>
-      <c r="I9" s="48"/>
-      <c r="J9" s="39"/>
-      <c r="K9" s="39"/>
+      <c r="I9" s="48" t="s">
+        <v>78</v>
+      </c>
+      <c r="J9" s="39" t="s">
+        <v>81</v>
+      </c>
+      <c r="K9" s="39" t="s">
+        <v>73</v>
+      </c>
       <c r="L9" s="39"/>
-      <c r="M9" s="39"/>
+      <c r="M9" s="39" t="s">
+        <v>82</v>
+      </c>
       <c r="N9" s="1"/>
-      <c r="O9" s="39"/>
-      <c r="P9" s="1"/>
-      <c r="Q9" s="2"/>
-      <c r="R9" s="37"/>
+      <c r="O9" s="39" t="s">
+        <v>67</v>
+      </c>
+      <c r="P9" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="Q9" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="R9" s="37" t="s">
+        <v>25</v>
+      </c>
       <c r="S9" s="3"/>
       <c r="T9" s="64"/>
-      <c r="U9" s="69"/>
+      <c r="U9" s="77"/>
       <c r="V9" s="3" t="s">
         <v>51</v>
       </c>
@@ -1417,26 +1474,48 @@
       <c r="A10" s="3">
         <v>5</v>
       </c>
-      <c r="B10" s="59"/>
-      <c r="C10" s="63"/>
-      <c r="D10" s="37"/>
-      <c r="E10" s="38"/>
-      <c r="F10" s="49"/>
-      <c r="G10" s="37"/>
+      <c r="B10" s="63">
+        <v>44956</v>
+      </c>
+      <c r="C10" s="63">
+        <v>44957</v>
+      </c>
+      <c r="D10" s="37" t="s">
+        <v>66</v>
+      </c>
+      <c r="E10" s="38">
+        <v>869627031844913</v>
+      </c>
+      <c r="F10" s="37"/>
+      <c r="G10" s="37" t="s">
+        <v>65</v>
+      </c>
       <c r="H10" s="1"/>
       <c r="I10" s="48"/>
       <c r="J10" s="39"/>
       <c r="K10" s="58"/>
-      <c r="L10" s="58"/>
-      <c r="M10" s="39"/>
+      <c r="L10" s="58" t="s">
+        <v>79</v>
+      </c>
+      <c r="M10" s="39" t="s">
+        <v>80</v>
+      </c>
       <c r="N10" s="1"/>
-      <c r="O10" s="39"/>
-      <c r="P10" s="1"/>
-      <c r="Q10" s="2"/>
-      <c r="R10" s="37"/>
+      <c r="O10" s="39" t="s">
+        <v>67</v>
+      </c>
+      <c r="P10" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="Q10" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="R10" s="37" t="s">
+        <v>36</v>
+      </c>
       <c r="S10" s="3"/>
       <c r="T10" s="64"/>
-      <c r="U10" s="69"/>
+      <c r="U10" s="77"/>
       <c r="V10" s="3" t="s">
         <v>31</v>
       </c>
@@ -1465,7 +1544,7 @@
       <c r="R11" s="37"/>
       <c r="S11" s="3"/>
       <c r="T11" s="64"/>
-      <c r="U11" s="69"/>
+      <c r="U11" s="77"/>
       <c r="V11" s="3" t="s">
         <v>30</v>
       </c>
@@ -1493,7 +1572,7 @@
       <c r="R12" s="37"/>
       <c r="S12" s="3"/>
       <c r="T12" s="64"/>
-      <c r="U12" s="68" t="s">
+      <c r="U12" s="76" t="s">
         <v>19</v>
       </c>
       <c r="V12" s="3" t="s">
@@ -1524,7 +1603,7 @@
       <c r="R13" s="37"/>
       <c r="S13" s="3"/>
       <c r="T13" s="64"/>
-      <c r="U13" s="69"/>
+      <c r="U13" s="77"/>
       <c r="V13" s="3" t="s">
         <v>37</v>
       </c>
@@ -1553,7 +1632,7 @@
       <c r="R14" s="37"/>
       <c r="S14" s="3"/>
       <c r="T14" s="64"/>
-      <c r="U14" s="69"/>
+      <c r="U14" s="77"/>
       <c r="V14" s="3" t="s">
         <v>36</v>
       </c>
@@ -1582,7 +1661,7 @@
       <c r="R15" s="37"/>
       <c r="S15" s="3"/>
       <c r="T15" s="13"/>
-      <c r="U15" s="69"/>
+      <c r="U15" s="77"/>
       <c r="V15" s="3" t="s">
         <v>24</v>
       </c>
@@ -1611,7 +1690,7 @@
       <c r="R16" s="37"/>
       <c r="S16" s="3"/>
       <c r="T16" s="13"/>
-      <c r="U16" s="70"/>
+      <c r="U16" s="78"/>
       <c r="V16" s="3" t="s">
         <v>25</v>
       </c>
@@ -1730,7 +1809,7 @@
       </c>
       <c r="V20" s="9">
         <f>COUNTIF($Q$6:$Q$51,"PM")</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="W20" s="13"/>
     </row>
@@ -2167,7 +2246,7 @@
       </c>
       <c r="V34" s="9">
         <f>COUNTIF($R$6:$R$51,"*RTB*")</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W34" s="13"/>
     </row>
@@ -2231,7 +2310,7 @@
       </c>
       <c r="V36" s="9">
         <f>COUNTIF($R$6:$R$51,"*KL*")</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="W36" s="13"/>
     </row>
@@ -2263,7 +2342,7 @@
       </c>
       <c r="V37" s="9">
         <f>SUM(V26:V36)</f>
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="W37" s="13"/>
     </row>
@@ -2842,6 +2921,13 @@
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="U6:U11"/>
+    <mergeCell ref="U12:U16"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="U4:U5"/>
     <mergeCell ref="V4:V5"/>
     <mergeCell ref="A1:V1"/>
     <mergeCell ref="A2:D2"/>
@@ -2853,13 +2939,6 @@
     <mergeCell ref="M4:M5"/>
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
-    <mergeCell ref="U6:U11"/>
-    <mergeCell ref="U12:U16"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="U4:U5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -2870,8 +2949,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:X57"/>
   <sheetViews>
-    <sheetView showZeros="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I6" sqref="I6"/>
+    <sheetView showZeros="0" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B32" sqref="B32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -2903,43 +2982,43 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="77" t="s">
+      <c r="A1" s="69" t="s">
         <v>61</v>
       </c>
-      <c r="B1" s="77"/>
-      <c r="C1" s="77"/>
-      <c r="D1" s="77"/>
-      <c r="E1" s="77"/>
-      <c r="F1" s="77"/>
-      <c r="G1" s="77"/>
-      <c r="H1" s="77"/>
-      <c r="I1" s="77"/>
-      <c r="J1" s="77"/>
-      <c r="K1" s="77"/>
-      <c r="L1" s="77"/>
-      <c r="M1" s="77"/>
-      <c r="N1" s="77"/>
-      <c r="O1" s="77"/>
-      <c r="P1" s="77"/>
-      <c r="Q1" s="77"/>
-      <c r="R1" s="77"/>
-      <c r="S1" s="77"/>
-      <c r="T1" s="77"/>
-      <c r="U1" s="77"/>
-      <c r="V1" s="77"/>
+      <c r="B1" s="69"/>
+      <c r="C1" s="69"/>
+      <c r="D1" s="69"/>
+      <c r="E1" s="69"/>
+      <c r="F1" s="69"/>
+      <c r="G1" s="69"/>
+      <c r="H1" s="69"/>
+      <c r="I1" s="69"/>
+      <c r="J1" s="69"/>
+      <c r="K1" s="69"/>
+      <c r="L1" s="69"/>
+      <c r="M1" s="69"/>
+      <c r="N1" s="69"/>
+      <c r="O1" s="69"/>
+      <c r="P1" s="69"/>
+      <c r="Q1" s="69"/>
+      <c r="R1" s="69"/>
+      <c r="S1" s="69"/>
+      <c r="T1" s="69"/>
+      <c r="U1" s="69"/>
+      <c r="V1" s="69"/>
       <c r="W1" s="45"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="78" t="s">
+      <c r="A2" s="70" t="s">
         <v>63</v>
       </c>
-      <c r="B2" s="79"/>
-      <c r="C2" s="79"/>
-      <c r="D2" s="79"/>
-      <c r="E2" s="80" t="s">
-        <v>76</v>
-      </c>
-      <c r="F2" s="80"/>
+      <c r="B2" s="71"/>
+      <c r="C2" s="71"/>
+      <c r="D2" s="71"/>
+      <c r="E2" s="72" t="s">
+        <v>75</v>
+      </c>
+      <c r="F2" s="72"/>
       <c r="G2" s="4"/>
       <c r="H2" s="20"/>
       <c r="I2" s="51"/>
@@ -2984,58 +3063,58 @@
       <c r="W3" s="26"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="81" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="76" t="s">
+      <c r="A4" s="73" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="68" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="76"/>
-      <c r="D4" s="76"/>
-      <c r="E4" s="76"/>
-      <c r="F4" s="76"/>
-      <c r="G4" s="76"/>
-      <c r="H4" s="76"/>
-      <c r="I4" s="76"/>
-      <c r="J4" s="76" t="s">
+      <c r="C4" s="68"/>
+      <c r="D4" s="68"/>
+      <c r="E4" s="68"/>
+      <c r="F4" s="68"/>
+      <c r="G4" s="68"/>
+      <c r="H4" s="68"/>
+      <c r="I4" s="68"/>
+      <c r="J4" s="68" t="s">
         <v>11</v>
       </c>
-      <c r="K4" s="76"/>
-      <c r="L4" s="73" t="s">
+      <c r="K4" s="68"/>
+      <c r="L4" s="74" t="s">
         <v>6</v>
       </c>
-      <c r="M4" s="73" t="s">
+      <c r="M4" s="74" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="73" t="s">
+      <c r="N4" s="74" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="73" t="s">
+      <c r="O4" s="74" t="s">
         <v>7</v>
       </c>
-      <c r="P4" s="71" t="s">
+      <c r="P4" s="79" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="73" t="s">
+      <c r="Q4" s="74" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="73" t="s">
+      <c r="R4" s="74" t="s">
         <v>53</v>
       </c>
-      <c r="S4" s="75" t="s">
+      <c r="S4" s="81" t="s">
         <v>54</v>
       </c>
       <c r="T4" s="26"/>
-      <c r="U4" s="76" t="s">
+      <c r="U4" s="68" t="s">
         <v>39</v>
       </c>
-      <c r="V4" s="76" t="s">
+      <c r="V4" s="68" t="s">
         <v>53</v>
       </c>
       <c r="W4" s="46"/>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="81"/>
+      <c r="A5" s="73"/>
       <c r="B5" s="66" t="s">
         <v>1</v>
       </c>
@@ -3066,17 +3145,17 @@
       <c r="K5" s="66" t="s">
         <v>13</v>
       </c>
-      <c r="L5" s="74"/>
-      <c r="M5" s="74"/>
-      <c r="N5" s="74"/>
-      <c r="O5" s="74"/>
-      <c r="P5" s="72"/>
-      <c r="Q5" s="74"/>
-      <c r="R5" s="74"/>
-      <c r="S5" s="75"/>
+      <c r="L5" s="75"/>
+      <c r="M5" s="75"/>
+      <c r="N5" s="75"/>
+      <c r="O5" s="75"/>
+      <c r="P5" s="80"/>
+      <c r="Q5" s="75"/>
+      <c r="R5" s="75"/>
+      <c r="S5" s="81"/>
       <c r="T5" s="26"/>
-      <c r="U5" s="76"/>
-      <c r="V5" s="76"/>
+      <c r="U5" s="68"/>
+      <c r="V5" s="68"/>
       <c r="W5" s="46"/>
     </row>
     <row r="6" spans="1:23" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -3086,7 +3165,9 @@
       <c r="B6" s="63">
         <v>44932</v>
       </c>
-      <c r="C6" s="63"/>
+      <c r="C6" s="63">
+        <v>44936</v>
+      </c>
       <c r="D6" s="37" t="s">
         <v>44</v>
       </c>
@@ -3099,17 +3180,17 @@
       </c>
       <c r="H6" s="37"/>
       <c r="I6" s="54" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="J6" s="39" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="K6" s="39"/>
       <c r="L6" s="39" t="s">
+        <v>79</v>
+      </c>
+      <c r="M6" s="39" t="s">
         <v>80</v>
-      </c>
-      <c r="M6" s="39" t="s">
-        <v>81</v>
       </c>
       <c r="N6" s="1"/>
       <c r="O6" s="39" t="s">
@@ -3126,7 +3207,7 @@
       </c>
       <c r="S6" s="3"/>
       <c r="T6" s="67"/>
-      <c r="U6" s="68" t="s">
+      <c r="U6" s="76" t="s">
         <v>18</v>
       </c>
       <c r="V6" s="3" t="s">
@@ -3141,7 +3222,9 @@
       <c r="B7" s="63">
         <v>44932</v>
       </c>
-      <c r="C7" s="63"/>
+      <c r="C7" s="63">
+        <v>44936</v>
+      </c>
       <c r="D7" s="37" t="s">
         <v>44</v>
       </c>
@@ -3154,14 +3237,16 @@
       </c>
       <c r="H7" s="37"/>
       <c r="I7" s="54" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="J7" s="39" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="K7" s="39"/>
       <c r="L7" s="39"/>
-      <c r="M7" s="39"/>
+      <c r="M7" s="39" t="s">
+        <v>38</v>
+      </c>
       <c r="N7" s="1"/>
       <c r="O7" s="39" t="s">
         <v>67</v>
@@ -3173,11 +3258,11 @@
         <v>19</v>
       </c>
       <c r="R7" s="37" t="s">
-        <v>69</v>
+        <v>24</v>
       </c>
       <c r="S7" s="3"/>
       <c r="T7" s="67"/>
-      <c r="U7" s="69"/>
+      <c r="U7" s="77"/>
       <c r="V7" s="3" t="s">
         <v>35</v>
       </c>
@@ -3190,7 +3275,9 @@
       <c r="B8" s="63">
         <v>44932</v>
       </c>
-      <c r="C8" s="63"/>
+      <c r="C8" s="63">
+        <v>44936</v>
+      </c>
       <c r="D8" s="37" t="s">
         <v>44</v>
       </c>
@@ -3203,22 +3290,32 @@
       </c>
       <c r="H8" s="12"/>
       <c r="I8" s="54" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="J8" s="39" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="K8" s="39"/>
       <c r="L8" s="39"/>
-      <c r="M8" s="39"/>
+      <c r="M8" s="39" t="s">
+        <v>38</v>
+      </c>
       <c r="N8" s="1"/>
-      <c r="O8" s="39"/>
-      <c r="P8" s="1"/>
-      <c r="Q8" s="2"/>
-      <c r="R8" s="37"/>
+      <c r="O8" s="39" t="s">
+        <v>67</v>
+      </c>
+      <c r="P8" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="Q8" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="R8" s="37" t="s">
+        <v>24</v>
+      </c>
       <c r="S8" s="3"/>
       <c r="T8" s="67"/>
-      <c r="U8" s="69"/>
+      <c r="U8" s="77"/>
       <c r="V8" s="3" t="s">
         <v>21</v>
       </c>
@@ -3228,26 +3325,50 @@
       <c r="A9" s="3">
         <v>4</v>
       </c>
-      <c r="B9" s="63"/>
-      <c r="C9" s="63"/>
-      <c r="D9" s="37"/>
-      <c r="E9" s="38"/>
-      <c r="F9" s="37"/>
-      <c r="G9" s="37"/>
+      <c r="B9" s="63">
+        <v>44956</v>
+      </c>
+      <c r="C9" s="63">
+        <v>44957</v>
+      </c>
+      <c r="D9" s="37" t="s">
+        <v>44</v>
+      </c>
+      <c r="E9" s="38">
+        <v>868183038053233</v>
+      </c>
+      <c r="F9" s="49"/>
+      <c r="G9" s="37" t="s">
+        <v>65</v>
+      </c>
       <c r="H9" s="1"/>
-      <c r="I9" s="48"/>
-      <c r="J9" s="39"/>
+      <c r="I9" s="54" t="s">
+        <v>78</v>
+      </c>
+      <c r="J9" s="39" t="s">
+        <v>74</v>
+      </c>
       <c r="K9" s="39"/>
       <c r="L9" s="39"/>
-      <c r="M9" s="39"/>
+      <c r="M9" s="39" t="s">
+        <v>38</v>
+      </c>
       <c r="N9" s="1"/>
-      <c r="O9" s="39"/>
-      <c r="P9" s="1"/>
-      <c r="Q9" s="2"/>
-      <c r="R9" s="37"/>
+      <c r="O9" s="39" t="s">
+        <v>67</v>
+      </c>
+      <c r="P9" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="Q9" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="R9" s="37" t="s">
+        <v>24</v>
+      </c>
       <c r="S9" s="3"/>
       <c r="T9" s="67"/>
-      <c r="U9" s="69"/>
+      <c r="U9" s="77"/>
       <c r="V9" s="3" t="s">
         <v>51</v>
       </c>
@@ -3257,26 +3378,50 @@
       <c r="A10" s="3">
         <v>5</v>
       </c>
-      <c r="B10" s="59"/>
-      <c r="C10" s="63"/>
-      <c r="D10" s="37"/>
-      <c r="E10" s="38"/>
+      <c r="B10" s="63">
+        <v>44956</v>
+      </c>
+      <c r="C10" s="63">
+        <v>44957</v>
+      </c>
+      <c r="D10" s="37" t="s">
+        <v>44</v>
+      </c>
+      <c r="E10" s="38">
+        <v>868183038610544</v>
+      </c>
       <c r="F10" s="49"/>
-      <c r="G10" s="37"/>
+      <c r="G10" s="37" t="s">
+        <v>65</v>
+      </c>
       <c r="H10" s="1"/>
-      <c r="I10" s="48"/>
-      <c r="J10" s="39"/>
+      <c r="I10" s="54" t="s">
+        <v>77</v>
+      </c>
+      <c r="J10" s="39" t="s">
+        <v>74</v>
+      </c>
       <c r="K10" s="58"/>
       <c r="L10" s="58"/>
-      <c r="M10" s="39"/>
+      <c r="M10" s="39" t="s">
+        <v>38</v>
+      </c>
       <c r="N10" s="1"/>
-      <c r="O10" s="39"/>
-      <c r="P10" s="1"/>
-      <c r="Q10" s="2"/>
-      <c r="R10" s="37"/>
+      <c r="O10" s="39" t="s">
+        <v>67</v>
+      </c>
+      <c r="P10" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="Q10" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="R10" s="37" t="s">
+        <v>24</v>
+      </c>
       <c r="S10" s="3"/>
       <c r="T10" s="67"/>
-      <c r="U10" s="69"/>
+      <c r="U10" s="77"/>
       <c r="V10" s="3" t="s">
         <v>31</v>
       </c>
@@ -3286,26 +3431,52 @@
       <c r="A11" s="3">
         <v>6</v>
       </c>
-      <c r="B11" s="59"/>
-      <c r="C11" s="63"/>
-      <c r="D11" s="37"/>
-      <c r="E11" s="38"/>
+      <c r="B11" s="63">
+        <v>44956</v>
+      </c>
+      <c r="C11" s="63">
+        <v>44957</v>
+      </c>
+      <c r="D11" s="37" t="s">
+        <v>44</v>
+      </c>
+      <c r="E11" s="38">
+        <v>868183033809547</v>
+      </c>
       <c r="F11" s="49"/>
-      <c r="G11" s="37"/>
+      <c r="G11" s="37" t="s">
+        <v>65</v>
+      </c>
       <c r="H11" s="37"/>
-      <c r="I11" s="54"/>
-      <c r="J11" s="39"/>
+      <c r="I11" s="54" t="s">
+        <v>76</v>
+      </c>
+      <c r="J11" s="39" t="s">
+        <v>74</v>
+      </c>
       <c r="K11" s="39"/>
       <c r="L11" s="39"/>
-      <c r="M11" s="39"/>
-      <c r="N11" s="1"/>
-      <c r="O11" s="39"/>
-      <c r="P11" s="1"/>
-      <c r="Q11" s="2"/>
-      <c r="R11" s="37"/>
-      <c r="S11" s="3"/>
+      <c r="M11" s="39" t="s">
+        <v>79</v>
+      </c>
+      <c r="N11" s="39" t="s">
+        <v>80</v>
+      </c>
+      <c r="O11" s="1"/>
+      <c r="P11" s="39" t="s">
+        <v>67</v>
+      </c>
+      <c r="Q11" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="R11" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="S11" s="37" t="s">
+        <v>36</v>
+      </c>
       <c r="T11" s="67"/>
-      <c r="U11" s="69"/>
+      <c r="U11" s="77"/>
       <c r="V11" s="3" t="s">
         <v>30</v>
       </c>
@@ -3315,26 +3486,50 @@
       <c r="A12" s="3">
         <v>7</v>
       </c>
-      <c r="B12" s="59"/>
-      <c r="C12" s="63"/>
-      <c r="D12" s="37"/>
-      <c r="E12" s="38"/>
-      <c r="F12" s="37"/>
-      <c r="G12" s="37"/>
+      <c r="B12" s="63">
+        <v>44956</v>
+      </c>
+      <c r="C12" s="63">
+        <v>44957</v>
+      </c>
+      <c r="D12" s="37" t="s">
+        <v>44</v>
+      </c>
+      <c r="E12" s="38">
+        <v>868183038085465</v>
+      </c>
+      <c r="F12" s="49"/>
+      <c r="G12" s="37" t="s">
+        <v>65</v>
+      </c>
       <c r="H12" s="1"/>
-      <c r="I12" s="54"/>
-      <c r="J12" s="1"/>
+      <c r="I12" s="54" t="s">
+        <v>77</v>
+      </c>
+      <c r="J12" s="39" t="s">
+        <v>74</v>
+      </c>
       <c r="K12" s="39"/>
       <c r="L12" s="39"/>
-      <c r="M12" s="39"/>
+      <c r="M12" s="39" t="s">
+        <v>38</v>
+      </c>
       <c r="N12" s="1"/>
-      <c r="O12" s="39"/>
-      <c r="P12" s="1"/>
-      <c r="Q12" s="2"/>
-      <c r="R12" s="37"/>
+      <c r="O12" s="39" t="s">
+        <v>67</v>
+      </c>
+      <c r="P12" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="Q12" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="R12" s="37" t="s">
+        <v>24</v>
+      </c>
       <c r="S12" s="3"/>
       <c r="T12" s="67"/>
-      <c r="U12" s="68" t="s">
+      <c r="U12" s="76" t="s">
         <v>19</v>
       </c>
       <c r="V12" s="3" t="s">
@@ -3365,7 +3560,7 @@
       <c r="R13" s="37"/>
       <c r="S13" s="3"/>
       <c r="T13" s="67"/>
-      <c r="U13" s="69"/>
+      <c r="U13" s="77"/>
       <c r="V13" s="3" t="s">
         <v>37</v>
       </c>
@@ -3394,7 +3589,7 @@
       <c r="R14" s="37"/>
       <c r="S14" s="3"/>
       <c r="T14" s="67"/>
-      <c r="U14" s="69"/>
+      <c r="U14" s="77"/>
       <c r="V14" s="3" t="s">
         <v>36</v>
       </c>
@@ -3423,7 +3618,7 @@
       <c r="R15" s="37"/>
       <c r="S15" s="3"/>
       <c r="T15" s="13"/>
-      <c r="U15" s="69"/>
+      <c r="U15" s="77"/>
       <c r="V15" s="3" t="s">
         <v>24</v>
       </c>
@@ -3452,7 +3647,7 @@
       <c r="R16" s="37"/>
       <c r="S16" s="3"/>
       <c r="T16" s="13"/>
-      <c r="U16" s="70"/>
+      <c r="U16" s="78"/>
       <c r="V16" s="3" t="s">
         <v>25</v>
       </c>
@@ -3571,7 +3766,7 @@
       </c>
       <c r="V20" s="9">
         <f>COUNTIF($Q$6:$Q$51,"PM")</f>
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="W20" s="13"/>
     </row>
@@ -3976,7 +4171,7 @@
       </c>
       <c r="V33" s="9">
         <f>COUNTIF($R$6:$R$51,"*SF*")</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W33" s="13"/>
     </row>
@@ -4040,7 +4235,7 @@
       </c>
       <c r="V35" s="9">
         <f>COUNTIF($R$6:$R$51,"*NCFW*")</f>
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="W35" s="13"/>
     </row>
@@ -4104,7 +4299,7 @@
       </c>
       <c r="V37" s="9">
         <f>SUM(V26:V36)</f>
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="W37" s="13"/>
     </row>
@@ -4683,13 +4878,6 @@
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="U6:U11"/>
-    <mergeCell ref="U12:U16"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="U4:U5"/>
     <mergeCell ref="V4:V5"/>
     <mergeCell ref="A1:V1"/>
     <mergeCell ref="A2:D2"/>
@@ -4701,6 +4889,13 @@
     <mergeCell ref="M4:M5"/>
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
+    <mergeCell ref="U6:U11"/>
+    <mergeCell ref="U12:U16"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="U4:U5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -4744,43 +4939,43 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="77" t="s">
+      <c r="A1" s="69" t="s">
         <v>61</v>
       </c>
-      <c r="B1" s="77"/>
-      <c r="C1" s="77"/>
-      <c r="D1" s="77"/>
-      <c r="E1" s="77"/>
-      <c r="F1" s="77"/>
-      <c r="G1" s="77"/>
-      <c r="H1" s="77"/>
-      <c r="I1" s="77"/>
-      <c r="J1" s="77"/>
-      <c r="K1" s="77"/>
-      <c r="L1" s="77"/>
-      <c r="M1" s="77"/>
-      <c r="N1" s="77"/>
-      <c r="O1" s="77"/>
-      <c r="P1" s="77"/>
-      <c r="Q1" s="77"/>
-      <c r="R1" s="77"/>
-      <c r="S1" s="77"/>
-      <c r="T1" s="77"/>
-      <c r="U1" s="77"/>
-      <c r="V1" s="77"/>
+      <c r="B1" s="69"/>
+      <c r="C1" s="69"/>
+      <c r="D1" s="69"/>
+      <c r="E1" s="69"/>
+      <c r="F1" s="69"/>
+      <c r="G1" s="69"/>
+      <c r="H1" s="69"/>
+      <c r="I1" s="69"/>
+      <c r="J1" s="69"/>
+      <c r="K1" s="69"/>
+      <c r="L1" s="69"/>
+      <c r="M1" s="69"/>
+      <c r="N1" s="69"/>
+      <c r="O1" s="69"/>
+      <c r="P1" s="69"/>
+      <c r="Q1" s="69"/>
+      <c r="R1" s="69"/>
+      <c r="S1" s="69"/>
+      <c r="T1" s="69"/>
+      <c r="U1" s="69"/>
+      <c r="V1" s="69"/>
       <c r="W1" s="45"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="78" t="s">
+      <c r="A2" s="70" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="79"/>
-      <c r="C2" s="79"/>
-      <c r="D2" s="79"/>
-      <c r="E2" s="82" t="s">
+      <c r="B2" s="71"/>
+      <c r="C2" s="71"/>
+      <c r="D2" s="71"/>
+      <c r="E2" s="83" t="s">
         <v>64</v>
       </c>
-      <c r="F2" s="82"/>
+      <c r="F2" s="83"/>
       <c r="G2" s="4"/>
       <c r="H2" s="20"/>
       <c r="I2" s="20"/>
@@ -4825,58 +5020,58 @@
       <c r="W3" s="26"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="81" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="76" t="s">
+      <c r="A4" s="73" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="68" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="76"/>
-      <c r="D4" s="76"/>
-      <c r="E4" s="76"/>
-      <c r="F4" s="76"/>
-      <c r="G4" s="76"/>
-      <c r="H4" s="76"/>
-      <c r="I4" s="76"/>
-      <c r="J4" s="76" t="s">
+      <c r="C4" s="68"/>
+      <c r="D4" s="68"/>
+      <c r="E4" s="68"/>
+      <c r="F4" s="68"/>
+      <c r="G4" s="68"/>
+      <c r="H4" s="68"/>
+      <c r="I4" s="68"/>
+      <c r="J4" s="68" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="76" t="s">
+      <c r="K4" s="68" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="76"/>
-      <c r="M4" s="73" t="s">
+      <c r="L4" s="68"/>
+      <c r="M4" s="74" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="73" t="s">
+      <c r="N4" s="74" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="76" t="s">
+      <c r="O4" s="68" t="s">
         <v>7</v>
       </c>
-      <c r="P4" s="83" t="s">
+      <c r="P4" s="82" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="76" t="s">
+      <c r="Q4" s="68" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="76" t="s">
+      <c r="R4" s="68" t="s">
         <v>53</v>
       </c>
-      <c r="S4" s="75" t="s">
+      <c r="S4" s="81" t="s">
         <v>54</v>
       </c>
       <c r="T4" s="26"/>
-      <c r="U4" s="76" t="s">
+      <c r="U4" s="68" t="s">
         <v>39</v>
       </c>
-      <c r="V4" s="76" t="s">
+      <c r="V4" s="68" t="s">
         <v>53</v>
       </c>
       <c r="W4" s="46"/>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="81"/>
+      <c r="A5" s="73"/>
       <c r="B5" s="42" t="s">
         <v>1</v>
       </c>
@@ -4901,23 +5096,23 @@
       <c r="I5" s="42" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="76"/>
+      <c r="J5" s="68"/>
       <c r="K5" s="42" t="s">
         <v>12</v>
       </c>
       <c r="L5" s="42" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="74"/>
-      <c r="N5" s="74"/>
-      <c r="O5" s="76"/>
-      <c r="P5" s="83"/>
-      <c r="Q5" s="76"/>
-      <c r="R5" s="76"/>
-      <c r="S5" s="75"/>
+      <c r="M5" s="75"/>
+      <c r="N5" s="75"/>
+      <c r="O5" s="68"/>
+      <c r="P5" s="82"/>
+      <c r="Q5" s="68"/>
+      <c r="R5" s="68"/>
+      <c r="S5" s="81"/>
       <c r="T5" s="26"/>
-      <c r="U5" s="76"/>
-      <c r="V5" s="76"/>
+      <c r="U5" s="68"/>
+      <c r="V5" s="68"/>
       <c r="W5" s="46"/>
     </row>
     <row r="6" spans="1:23" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -4943,7 +5138,7 @@
       <c r="R6" s="37"/>
       <c r="S6" s="3"/>
       <c r="T6" s="41"/>
-      <c r="U6" s="68" t="s">
+      <c r="U6" s="76" t="s">
         <v>18</v>
       </c>
       <c r="V6" s="3" t="s">
@@ -4974,7 +5169,7 @@
       <c r="R7" s="37"/>
       <c r="S7" s="3"/>
       <c r="T7" s="41"/>
-      <c r="U7" s="69"/>
+      <c r="U7" s="77"/>
       <c r="V7" s="3" t="s">
         <v>35</v>
       </c>
@@ -5003,7 +5198,7 @@
       <c r="R8" s="37"/>
       <c r="S8" s="3"/>
       <c r="T8" s="41"/>
-      <c r="U8" s="69"/>
+      <c r="U8" s="77"/>
       <c r="V8" s="3" t="s">
         <v>21</v>
       </c>
@@ -5032,7 +5227,7 @@
       <c r="R9" s="37"/>
       <c r="S9" s="3"/>
       <c r="T9" s="41"/>
-      <c r="U9" s="69"/>
+      <c r="U9" s="77"/>
       <c r="V9" s="3" t="s">
         <v>51</v>
       </c>
@@ -5061,7 +5256,7 @@
       <c r="R10" s="37"/>
       <c r="S10" s="3"/>
       <c r="T10" s="41"/>
-      <c r="U10" s="69"/>
+      <c r="U10" s="77"/>
       <c r="V10" s="3" t="s">
         <v>31</v>
       </c>
@@ -5090,7 +5285,7 @@
       <c r="R11" s="37"/>
       <c r="S11" s="3"/>
       <c r="T11" s="41"/>
-      <c r="U11" s="69"/>
+      <c r="U11" s="77"/>
       <c r="V11" s="3" t="s">
         <v>30</v>
       </c>
@@ -5119,7 +5314,7 @@
       <c r="R12" s="37"/>
       <c r="S12" s="3"/>
       <c r="T12" s="41"/>
-      <c r="U12" s="68" t="s">
+      <c r="U12" s="76" t="s">
         <v>19</v>
       </c>
       <c r="V12" s="3" t="s">
@@ -5150,7 +5345,7 @@
       <c r="R13" s="9"/>
       <c r="S13" s="3"/>
       <c r="T13" s="41"/>
-      <c r="U13" s="69"/>
+      <c r="U13" s="77"/>
       <c r="V13" s="3" t="s">
         <v>37</v>
       </c>
@@ -5179,7 +5374,7 @@
       <c r="R14" s="37"/>
       <c r="S14" s="3"/>
       <c r="T14" s="41"/>
-      <c r="U14" s="69"/>
+      <c r="U14" s="77"/>
       <c r="V14" s="3" t="s">
         <v>36</v>
       </c>
@@ -5208,7 +5403,7 @@
       <c r="R15" s="37"/>
       <c r="S15" s="3"/>
       <c r="T15" s="13"/>
-      <c r="U15" s="69"/>
+      <c r="U15" s="77"/>
       <c r="V15" s="3" t="s">
         <v>24</v>
       </c>
@@ -5237,7 +5432,7 @@
       <c r="R16" s="37"/>
       <c r="S16" s="3"/>
       <c r="T16" s="13"/>
-      <c r="U16" s="70"/>
+      <c r="U16" s="78"/>
       <c r="V16" s="3" t="s">
         <v>25</v>
       </c>
@@ -6468,13 +6663,6 @@
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="U6:U11"/>
-    <mergeCell ref="U12:U16"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="U4:U5"/>
     <mergeCell ref="V4:V5"/>
     <mergeCell ref="A1:V1"/>
     <mergeCell ref="A2:D2"/>
@@ -6486,6 +6674,13 @@
     <mergeCell ref="M4:M5"/>
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
+    <mergeCell ref="U6:U11"/>
+    <mergeCell ref="U12:U16"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="U4:U5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/5. WS/1. Bộ phận bảo hành/1. Thực hiện sửa chữa bảo hành/nam2023/Thang1/02.XuLyBH/XLBH2301_LapDat.xlsx
+++ b/5. WS/1. Bộ phận bảo hành/1. Thực hiện sửa chữa bảo hành/nam2023/Thang1/02.XuLyBH/XLBH2301_LapDat.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-15" yWindow="4035" windowWidth="10320" windowHeight="4065"/>
+    <workbookView xWindow="-15" yWindow="4035" windowWidth="10320" windowHeight="4065" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="TG102V" sheetId="38" r:id="rId1"/>
@@ -691,6 +691,30 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -709,35 +733,11 @@
     <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="255" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1045,8 +1045,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:X57"/>
   <sheetViews>
-    <sheetView showZeros="0" tabSelected="1" topLeftCell="L1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="M9" sqref="M9:R9"/>
+    <sheetView showZeros="0" topLeftCell="M1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B8" sqref="B8:R10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1078,43 +1078,43 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="69" t="s">
+      <c r="A1" s="77" t="s">
         <v>61</v>
       </c>
-      <c r="B1" s="69"/>
-      <c r="C1" s="69"/>
-      <c r="D1" s="69"/>
-      <c r="E1" s="69"/>
-      <c r="F1" s="69"/>
-      <c r="G1" s="69"/>
-      <c r="H1" s="69"/>
-      <c r="I1" s="69"/>
-      <c r="J1" s="69"/>
-      <c r="K1" s="69"/>
-      <c r="L1" s="69"/>
-      <c r="M1" s="69"/>
-      <c r="N1" s="69"/>
-      <c r="O1" s="69"/>
-      <c r="P1" s="69"/>
-      <c r="Q1" s="69"/>
-      <c r="R1" s="69"/>
-      <c r="S1" s="69"/>
-      <c r="T1" s="69"/>
-      <c r="U1" s="69"/>
-      <c r="V1" s="69"/>
+      <c r="B1" s="77"/>
+      <c r="C1" s="77"/>
+      <c r="D1" s="77"/>
+      <c r="E1" s="77"/>
+      <c r="F1" s="77"/>
+      <c r="G1" s="77"/>
+      <c r="H1" s="77"/>
+      <c r="I1" s="77"/>
+      <c r="J1" s="77"/>
+      <c r="K1" s="77"/>
+      <c r="L1" s="77"/>
+      <c r="M1" s="77"/>
+      <c r="N1" s="77"/>
+      <c r="O1" s="77"/>
+      <c r="P1" s="77"/>
+      <c r="Q1" s="77"/>
+      <c r="R1" s="77"/>
+      <c r="S1" s="77"/>
+      <c r="T1" s="77"/>
+      <c r="U1" s="77"/>
+      <c r="V1" s="77"/>
       <c r="W1" s="45"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="70" t="s">
+      <c r="A2" s="78" t="s">
         <v>63</v>
       </c>
-      <c r="B2" s="71"/>
-      <c r="C2" s="71"/>
-      <c r="D2" s="71"/>
-      <c r="E2" s="72" t="s">
+      <c r="B2" s="79"/>
+      <c r="C2" s="79"/>
+      <c r="D2" s="79"/>
+      <c r="E2" s="80" t="s">
         <v>75</v>
       </c>
-      <c r="F2" s="72"/>
+      <c r="F2" s="80"/>
       <c r="G2" s="4"/>
       <c r="H2" s="20"/>
       <c r="I2" s="51"/>
@@ -1159,58 +1159,58 @@
       <c r="W3" s="26"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="73" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="68" t="s">
+      <c r="A4" s="81" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="76" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="68"/>
-      <c r="D4" s="68"/>
-      <c r="E4" s="68"/>
-      <c r="F4" s="68"/>
-      <c r="G4" s="68"/>
-      <c r="H4" s="68"/>
-      <c r="I4" s="68"/>
-      <c r="J4" s="68" t="s">
+      <c r="C4" s="76"/>
+      <c r="D4" s="76"/>
+      <c r="E4" s="76"/>
+      <c r="F4" s="76"/>
+      <c r="G4" s="76"/>
+      <c r="H4" s="76"/>
+      <c r="I4" s="76"/>
+      <c r="J4" s="76" t="s">
         <v>11</v>
       </c>
-      <c r="K4" s="68"/>
-      <c r="L4" s="74" t="s">
+      <c r="K4" s="76"/>
+      <c r="L4" s="73" t="s">
         <v>6</v>
       </c>
-      <c r="M4" s="74" t="s">
+      <c r="M4" s="73" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="74" t="s">
+      <c r="N4" s="73" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="74" t="s">
+      <c r="O4" s="73" t="s">
         <v>7</v>
       </c>
-      <c r="P4" s="79" t="s">
+      <c r="P4" s="71" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="74" t="s">
+      <c r="Q4" s="73" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="74" t="s">
+      <c r="R4" s="73" t="s">
         <v>53</v>
       </c>
-      <c r="S4" s="81" t="s">
+      <c r="S4" s="75" t="s">
         <v>54</v>
       </c>
       <c r="T4" s="26"/>
-      <c r="U4" s="68" t="s">
+      <c r="U4" s="76" t="s">
         <v>39</v>
       </c>
-      <c r="V4" s="68" t="s">
+      <c r="V4" s="76" t="s">
         <v>53</v>
       </c>
       <c r="W4" s="46"/>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="73"/>
+      <c r="A5" s="81"/>
       <c r="B5" s="65" t="s">
         <v>1</v>
       </c>
@@ -1241,17 +1241,17 @@
       <c r="K5" s="65" t="s">
         <v>13</v>
       </c>
-      <c r="L5" s="75"/>
-      <c r="M5" s="75"/>
-      <c r="N5" s="75"/>
-      <c r="O5" s="75"/>
-      <c r="P5" s="80"/>
-      <c r="Q5" s="75"/>
-      <c r="R5" s="75"/>
-      <c r="S5" s="81"/>
+      <c r="L5" s="74"/>
+      <c r="M5" s="74"/>
+      <c r="N5" s="74"/>
+      <c r="O5" s="74"/>
+      <c r="P5" s="72"/>
+      <c r="Q5" s="74"/>
+      <c r="R5" s="74"/>
+      <c r="S5" s="75"/>
       <c r="T5" s="26"/>
-      <c r="U5" s="68"/>
-      <c r="V5" s="68"/>
+      <c r="U5" s="76"/>
+      <c r="V5" s="76"/>
       <c r="W5" s="46"/>
     </row>
     <row r="6" spans="1:23" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -1299,7 +1299,7 @@
         <v>72</v>
       </c>
       <c r="T6" s="64"/>
-      <c r="U6" s="76" t="s">
+      <c r="U6" s="68" t="s">
         <v>18</v>
       </c>
       <c r="V6" s="3" t="s">
@@ -1356,7 +1356,7 @@
         <v>72</v>
       </c>
       <c r="T7" s="64"/>
-      <c r="U7" s="77"/>
+      <c r="U7" s="69"/>
       <c r="V7" s="3" t="s">
         <v>35</v>
       </c>
@@ -1409,7 +1409,7 @@
       </c>
       <c r="S8" s="3"/>
       <c r="T8" s="64"/>
-      <c r="U8" s="77"/>
+      <c r="U8" s="69"/>
       <c r="V8" s="3" t="s">
         <v>21</v>
       </c>
@@ -1464,7 +1464,7 @@
       </c>
       <c r="S9" s="3"/>
       <c r="T9" s="64"/>
-      <c r="U9" s="77"/>
+      <c r="U9" s="69"/>
       <c r="V9" s="3" t="s">
         <v>51</v>
       </c>
@@ -1515,7 +1515,7 @@
       </c>
       <c r="S10" s="3"/>
       <c r="T10" s="64"/>
-      <c r="U10" s="77"/>
+      <c r="U10" s="69"/>
       <c r="V10" s="3" t="s">
         <v>31</v>
       </c>
@@ -1544,7 +1544,7 @@
       <c r="R11" s="37"/>
       <c r="S11" s="3"/>
       <c r="T11" s="64"/>
-      <c r="U11" s="77"/>
+      <c r="U11" s="69"/>
       <c r="V11" s="3" t="s">
         <v>30</v>
       </c>
@@ -1572,7 +1572,7 @@
       <c r="R12" s="37"/>
       <c r="S12" s="3"/>
       <c r="T12" s="64"/>
-      <c r="U12" s="76" t="s">
+      <c r="U12" s="68" t="s">
         <v>19</v>
       </c>
       <c r="V12" s="3" t="s">
@@ -1603,7 +1603,7 @@
       <c r="R13" s="37"/>
       <c r="S13" s="3"/>
       <c r="T13" s="64"/>
-      <c r="U13" s="77"/>
+      <c r="U13" s="69"/>
       <c r="V13" s="3" t="s">
         <v>37</v>
       </c>
@@ -1632,7 +1632,7 @@
       <c r="R14" s="37"/>
       <c r="S14" s="3"/>
       <c r="T14" s="64"/>
-      <c r="U14" s="77"/>
+      <c r="U14" s="69"/>
       <c r="V14" s="3" t="s">
         <v>36</v>
       </c>
@@ -1661,7 +1661,7 @@
       <c r="R15" s="37"/>
       <c r="S15" s="3"/>
       <c r="T15" s="13"/>
-      <c r="U15" s="77"/>
+      <c r="U15" s="69"/>
       <c r="V15" s="3" t="s">
         <v>24</v>
       </c>
@@ -1690,7 +1690,7 @@
       <c r="R16" s="37"/>
       <c r="S16" s="3"/>
       <c r="T16" s="13"/>
-      <c r="U16" s="78"/>
+      <c r="U16" s="70"/>
       <c r="V16" s="3" t="s">
         <v>25</v>
       </c>
@@ -2921,13 +2921,6 @@
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="U6:U11"/>
-    <mergeCell ref="U12:U16"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="U4:U5"/>
     <mergeCell ref="V4:V5"/>
     <mergeCell ref="A1:V1"/>
     <mergeCell ref="A2:D2"/>
@@ -2939,6 +2932,13 @@
     <mergeCell ref="M4:M5"/>
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
+    <mergeCell ref="U6:U11"/>
+    <mergeCell ref="U12:U16"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="U4:U5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -2949,8 +2949,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:X57"/>
   <sheetViews>
-    <sheetView showZeros="0" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B32" sqref="B32"/>
+    <sheetView showZeros="0" tabSelected="1" topLeftCell="M1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="S11" sqref="S11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -2982,43 +2982,43 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="69" t="s">
+      <c r="A1" s="77" t="s">
         <v>61</v>
       </c>
-      <c r="B1" s="69"/>
-      <c r="C1" s="69"/>
-      <c r="D1" s="69"/>
-      <c r="E1" s="69"/>
-      <c r="F1" s="69"/>
-      <c r="G1" s="69"/>
-      <c r="H1" s="69"/>
-      <c r="I1" s="69"/>
-      <c r="J1" s="69"/>
-      <c r="K1" s="69"/>
-      <c r="L1" s="69"/>
-      <c r="M1" s="69"/>
-      <c r="N1" s="69"/>
-      <c r="O1" s="69"/>
-      <c r="P1" s="69"/>
-      <c r="Q1" s="69"/>
-      <c r="R1" s="69"/>
-      <c r="S1" s="69"/>
-      <c r="T1" s="69"/>
-      <c r="U1" s="69"/>
-      <c r="V1" s="69"/>
+      <c r="B1" s="77"/>
+      <c r="C1" s="77"/>
+      <c r="D1" s="77"/>
+      <c r="E1" s="77"/>
+      <c r="F1" s="77"/>
+      <c r="G1" s="77"/>
+      <c r="H1" s="77"/>
+      <c r="I1" s="77"/>
+      <c r="J1" s="77"/>
+      <c r="K1" s="77"/>
+      <c r="L1" s="77"/>
+      <c r="M1" s="77"/>
+      <c r="N1" s="77"/>
+      <c r="O1" s="77"/>
+      <c r="P1" s="77"/>
+      <c r="Q1" s="77"/>
+      <c r="R1" s="77"/>
+      <c r="S1" s="77"/>
+      <c r="T1" s="77"/>
+      <c r="U1" s="77"/>
+      <c r="V1" s="77"/>
       <c r="W1" s="45"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="70" t="s">
+      <c r="A2" s="78" t="s">
         <v>63</v>
       </c>
-      <c r="B2" s="71"/>
-      <c r="C2" s="71"/>
-      <c r="D2" s="71"/>
-      <c r="E2" s="72" t="s">
+      <c r="B2" s="79"/>
+      <c r="C2" s="79"/>
+      <c r="D2" s="79"/>
+      <c r="E2" s="80" t="s">
         <v>75</v>
       </c>
-      <c r="F2" s="72"/>
+      <c r="F2" s="80"/>
       <c r="G2" s="4"/>
       <c r="H2" s="20"/>
       <c r="I2" s="51"/>
@@ -3063,58 +3063,58 @@
       <c r="W3" s="26"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="73" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="68" t="s">
+      <c r="A4" s="81" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="76" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="68"/>
-      <c r="D4" s="68"/>
-      <c r="E4" s="68"/>
-      <c r="F4" s="68"/>
-      <c r="G4" s="68"/>
-      <c r="H4" s="68"/>
-      <c r="I4" s="68"/>
-      <c r="J4" s="68" t="s">
+      <c r="C4" s="76"/>
+      <c r="D4" s="76"/>
+      <c r="E4" s="76"/>
+      <c r="F4" s="76"/>
+      <c r="G4" s="76"/>
+      <c r="H4" s="76"/>
+      <c r="I4" s="76"/>
+      <c r="J4" s="76" t="s">
         <v>11</v>
       </c>
-      <c r="K4" s="68"/>
-      <c r="L4" s="74" t="s">
+      <c r="K4" s="76"/>
+      <c r="L4" s="73" t="s">
         <v>6</v>
       </c>
-      <c r="M4" s="74" t="s">
+      <c r="M4" s="73" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="74" t="s">
+      <c r="N4" s="73" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="74" t="s">
+      <c r="O4" s="73" t="s">
         <v>7</v>
       </c>
-      <c r="P4" s="79" t="s">
+      <c r="P4" s="71" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="74" t="s">
+      <c r="Q4" s="73" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="74" t="s">
+      <c r="R4" s="73" t="s">
         <v>53</v>
       </c>
-      <c r="S4" s="81" t="s">
+      <c r="S4" s="75" t="s">
         <v>54</v>
       </c>
       <c r="T4" s="26"/>
-      <c r="U4" s="68" t="s">
+      <c r="U4" s="76" t="s">
         <v>39</v>
       </c>
-      <c r="V4" s="68" t="s">
+      <c r="V4" s="76" t="s">
         <v>53</v>
       </c>
       <c r="W4" s="46"/>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="73"/>
+      <c r="A5" s="81"/>
       <c r="B5" s="66" t="s">
         <v>1</v>
       </c>
@@ -3145,17 +3145,17 @@
       <c r="K5" s="66" t="s">
         <v>13</v>
       </c>
-      <c r="L5" s="75"/>
-      <c r="M5" s="75"/>
-      <c r="N5" s="75"/>
-      <c r="O5" s="75"/>
-      <c r="P5" s="80"/>
-      <c r="Q5" s="75"/>
-      <c r="R5" s="75"/>
-      <c r="S5" s="81"/>
+      <c r="L5" s="74"/>
+      <c r="M5" s="74"/>
+      <c r="N5" s="74"/>
+      <c r="O5" s="74"/>
+      <c r="P5" s="72"/>
+      <c r="Q5" s="74"/>
+      <c r="R5" s="74"/>
+      <c r="S5" s="75"/>
       <c r="T5" s="26"/>
-      <c r="U5" s="68"/>
-      <c r="V5" s="68"/>
+      <c r="U5" s="76"/>
+      <c r="V5" s="76"/>
       <c r="W5" s="46"/>
     </row>
     <row r="6" spans="1:23" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -3207,7 +3207,7 @@
       </c>
       <c r="S6" s="3"/>
       <c r="T6" s="67"/>
-      <c r="U6" s="76" t="s">
+      <c r="U6" s="68" t="s">
         <v>18</v>
       </c>
       <c r="V6" s="3" t="s">
@@ -3262,7 +3262,7 @@
       </c>
       <c r="S7" s="3"/>
       <c r="T7" s="67"/>
-      <c r="U7" s="77"/>
+      <c r="U7" s="69"/>
       <c r="V7" s="3" t="s">
         <v>35</v>
       </c>
@@ -3315,7 +3315,7 @@
       </c>
       <c r="S8" s="3"/>
       <c r="T8" s="67"/>
-      <c r="U8" s="77"/>
+      <c r="U8" s="69"/>
       <c r="V8" s="3" t="s">
         <v>21</v>
       </c>
@@ -3368,7 +3368,7 @@
       </c>
       <c r="S9" s="3"/>
       <c r="T9" s="67"/>
-      <c r="U9" s="77"/>
+      <c r="U9" s="69"/>
       <c r="V9" s="3" t="s">
         <v>51</v>
       </c>
@@ -3421,7 +3421,7 @@
       </c>
       <c r="S10" s="3"/>
       <c r="T10" s="67"/>
-      <c r="U10" s="77"/>
+      <c r="U10" s="69"/>
       <c r="V10" s="3" t="s">
         <v>31</v>
       </c>
@@ -3455,28 +3455,28 @@
         <v>74</v>
       </c>
       <c r="K11" s="39"/>
-      <c r="L11" s="39"/>
+      <c r="L11" s="39" t="s">
+        <v>79</v>
+      </c>
       <c r="M11" s="39" t="s">
-        <v>79</v>
-      </c>
-      <c r="N11" s="39" t="s">
         <v>80</v>
       </c>
-      <c r="O11" s="1"/>
-      <c r="P11" s="39" t="s">
+      <c r="N11" s="39"/>
+      <c r="O11" s="39" t="s">
         <v>67</v>
       </c>
-      <c r="Q11" s="1" t="s">
+      <c r="P11" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="R11" s="2" t="s">
+      <c r="Q11" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="S11" s="37" t="s">
+      <c r="R11" s="37" t="s">
         <v>36</v>
       </c>
+      <c r="S11" s="37"/>
       <c r="T11" s="67"/>
-      <c r="U11" s="77"/>
+      <c r="U11" s="69"/>
       <c r="V11" s="3" t="s">
         <v>30</v>
       </c>
@@ -3529,7 +3529,7 @@
       </c>
       <c r="S12" s="3"/>
       <c r="T12" s="67"/>
-      <c r="U12" s="76" t="s">
+      <c r="U12" s="68" t="s">
         <v>19</v>
       </c>
       <c r="V12" s="3" t="s">
@@ -3560,7 +3560,7 @@
       <c r="R13" s="37"/>
       <c r="S13" s="3"/>
       <c r="T13" s="67"/>
-      <c r="U13" s="77"/>
+      <c r="U13" s="69"/>
       <c r="V13" s="3" t="s">
         <v>37</v>
       </c>
@@ -3589,7 +3589,7 @@
       <c r="R14" s="37"/>
       <c r="S14" s="3"/>
       <c r="T14" s="67"/>
-      <c r="U14" s="77"/>
+      <c r="U14" s="69"/>
       <c r="V14" s="3" t="s">
         <v>36</v>
       </c>
@@ -3618,7 +3618,7 @@
       <c r="R15" s="37"/>
       <c r="S15" s="3"/>
       <c r="T15" s="13"/>
-      <c r="U15" s="77"/>
+      <c r="U15" s="69"/>
       <c r="V15" s="3" t="s">
         <v>24</v>
       </c>
@@ -3635,11 +3635,6 @@
       <c r="F16" s="49"/>
       <c r="G16" s="37"/>
       <c r="H16" s="1"/>
-      <c r="I16" s="54"/>
-      <c r="J16" s="1"/>
-      <c r="K16" s="39"/>
-      <c r="L16" s="39"/>
-      <c r="M16" s="39"/>
       <c r="N16" s="1"/>
       <c r="O16" s="39"/>
       <c r="P16" s="1"/>
@@ -3647,7 +3642,7 @@
       <c r="R16" s="37"/>
       <c r="S16" s="3"/>
       <c r="T16" s="13"/>
-      <c r="U16" s="78"/>
+      <c r="U16" s="70"/>
       <c r="V16" s="3" t="s">
         <v>25</v>
       </c>
@@ -3766,7 +3761,7 @@
       </c>
       <c r="V20" s="9">
         <f>COUNTIF($Q$6:$Q$51,"PM")</f>
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="W20" s="13"/>
     </row>
@@ -4203,7 +4198,7 @@
       </c>
       <c r="V34" s="9">
         <f>COUNTIF($R$6:$R$51,"*RTB*")</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="W34" s="13"/>
     </row>
@@ -4299,7 +4294,7 @@
       </c>
       <c r="V37" s="9">
         <f>SUM(V26:V36)</f>
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="W37" s="13"/>
     </row>
@@ -4878,6 +4873,13 @@
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="U6:U11"/>
+    <mergeCell ref="U12:U16"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="U4:U5"/>
     <mergeCell ref="V4:V5"/>
     <mergeCell ref="A1:V1"/>
     <mergeCell ref="A2:D2"/>
@@ -4889,13 +4891,6 @@
     <mergeCell ref="M4:M5"/>
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
-    <mergeCell ref="U6:U11"/>
-    <mergeCell ref="U12:U16"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="U4:U5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -4939,43 +4934,43 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="69" t="s">
+      <c r="A1" s="77" t="s">
         <v>61</v>
       </c>
-      <c r="B1" s="69"/>
-      <c r="C1" s="69"/>
-      <c r="D1" s="69"/>
-      <c r="E1" s="69"/>
-      <c r="F1" s="69"/>
-      <c r="G1" s="69"/>
-      <c r="H1" s="69"/>
-      <c r="I1" s="69"/>
-      <c r="J1" s="69"/>
-      <c r="K1" s="69"/>
-      <c r="L1" s="69"/>
-      <c r="M1" s="69"/>
-      <c r="N1" s="69"/>
-      <c r="O1" s="69"/>
-      <c r="P1" s="69"/>
-      <c r="Q1" s="69"/>
-      <c r="R1" s="69"/>
-      <c r="S1" s="69"/>
-      <c r="T1" s="69"/>
-      <c r="U1" s="69"/>
-      <c r="V1" s="69"/>
+      <c r="B1" s="77"/>
+      <c r="C1" s="77"/>
+      <c r="D1" s="77"/>
+      <c r="E1" s="77"/>
+      <c r="F1" s="77"/>
+      <c r="G1" s="77"/>
+      <c r="H1" s="77"/>
+      <c r="I1" s="77"/>
+      <c r="J1" s="77"/>
+      <c r="K1" s="77"/>
+      <c r="L1" s="77"/>
+      <c r="M1" s="77"/>
+      <c r="N1" s="77"/>
+      <c r="O1" s="77"/>
+      <c r="P1" s="77"/>
+      <c r="Q1" s="77"/>
+      <c r="R1" s="77"/>
+      <c r="S1" s="77"/>
+      <c r="T1" s="77"/>
+      <c r="U1" s="77"/>
+      <c r="V1" s="77"/>
       <c r="W1" s="45"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="70" t="s">
+      <c r="A2" s="78" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="71"/>
-      <c r="C2" s="71"/>
-      <c r="D2" s="71"/>
-      <c r="E2" s="83" t="s">
+      <c r="B2" s="79"/>
+      <c r="C2" s="79"/>
+      <c r="D2" s="79"/>
+      <c r="E2" s="82" t="s">
         <v>64</v>
       </c>
-      <c r="F2" s="83"/>
+      <c r="F2" s="82"/>
       <c r="G2" s="4"/>
       <c r="H2" s="20"/>
       <c r="I2" s="20"/>
@@ -5020,58 +5015,58 @@
       <c r="W3" s="26"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="73" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="68" t="s">
+      <c r="A4" s="81" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="76" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="68"/>
-      <c r="D4" s="68"/>
-      <c r="E4" s="68"/>
-      <c r="F4" s="68"/>
-      <c r="G4" s="68"/>
-      <c r="H4" s="68"/>
-      <c r="I4" s="68"/>
-      <c r="J4" s="68" t="s">
+      <c r="C4" s="76"/>
+      <c r="D4" s="76"/>
+      <c r="E4" s="76"/>
+      <c r="F4" s="76"/>
+      <c r="G4" s="76"/>
+      <c r="H4" s="76"/>
+      <c r="I4" s="76"/>
+      <c r="J4" s="76" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="68" t="s">
+      <c r="K4" s="76" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="68"/>
-      <c r="M4" s="74" t="s">
+      <c r="L4" s="76"/>
+      <c r="M4" s="73" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="74" t="s">
+      <c r="N4" s="73" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="68" t="s">
+      <c r="O4" s="76" t="s">
         <v>7</v>
       </c>
-      <c r="P4" s="82" t="s">
+      <c r="P4" s="83" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="68" t="s">
+      <c r="Q4" s="76" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="68" t="s">
+      <c r="R4" s="76" t="s">
         <v>53</v>
       </c>
-      <c r="S4" s="81" t="s">
+      <c r="S4" s="75" t="s">
         <v>54</v>
       </c>
       <c r="T4" s="26"/>
-      <c r="U4" s="68" t="s">
+      <c r="U4" s="76" t="s">
         <v>39</v>
       </c>
-      <c r="V4" s="68" t="s">
+      <c r="V4" s="76" t="s">
         <v>53</v>
       </c>
       <c r="W4" s="46"/>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="73"/>
+      <c r="A5" s="81"/>
       <c r="B5" s="42" t="s">
         <v>1</v>
       </c>
@@ -5096,23 +5091,23 @@
       <c r="I5" s="42" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="68"/>
+      <c r="J5" s="76"/>
       <c r="K5" s="42" t="s">
         <v>12</v>
       </c>
       <c r="L5" s="42" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="75"/>
-      <c r="N5" s="75"/>
-      <c r="O5" s="68"/>
-      <c r="P5" s="82"/>
-      <c r="Q5" s="68"/>
-      <c r="R5" s="68"/>
-      <c r="S5" s="81"/>
+      <c r="M5" s="74"/>
+      <c r="N5" s="74"/>
+      <c r="O5" s="76"/>
+      <c r="P5" s="83"/>
+      <c r="Q5" s="76"/>
+      <c r="R5" s="76"/>
+      <c r="S5" s="75"/>
       <c r="T5" s="26"/>
-      <c r="U5" s="68"/>
-      <c r="V5" s="68"/>
+      <c r="U5" s="76"/>
+      <c r="V5" s="76"/>
       <c r="W5" s="46"/>
     </row>
     <row r="6" spans="1:23" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -5138,7 +5133,7 @@
       <c r="R6" s="37"/>
       <c r="S6" s="3"/>
       <c r="T6" s="41"/>
-      <c r="U6" s="76" t="s">
+      <c r="U6" s="68" t="s">
         <v>18</v>
       </c>
       <c r="V6" s="3" t="s">
@@ -5169,7 +5164,7 @@
       <c r="R7" s="37"/>
       <c r="S7" s="3"/>
       <c r="T7" s="41"/>
-      <c r="U7" s="77"/>
+      <c r="U7" s="69"/>
       <c r="V7" s="3" t="s">
         <v>35</v>
       </c>
@@ -5198,7 +5193,7 @@
       <c r="R8" s="37"/>
       <c r="S8" s="3"/>
       <c r="T8" s="41"/>
-      <c r="U8" s="77"/>
+      <c r="U8" s="69"/>
       <c r="V8" s="3" t="s">
         <v>21</v>
       </c>
@@ -5227,7 +5222,7 @@
       <c r="R9" s="37"/>
       <c r="S9" s="3"/>
       <c r="T9" s="41"/>
-      <c r="U9" s="77"/>
+      <c r="U9" s="69"/>
       <c r="V9" s="3" t="s">
         <v>51</v>
       </c>
@@ -5256,7 +5251,7 @@
       <c r="R10" s="37"/>
       <c r="S10" s="3"/>
       <c r="T10" s="41"/>
-      <c r="U10" s="77"/>
+      <c r="U10" s="69"/>
       <c r="V10" s="3" t="s">
         <v>31</v>
       </c>
@@ -5285,7 +5280,7 @@
       <c r="R11" s="37"/>
       <c r="S11" s="3"/>
       <c r="T11" s="41"/>
-      <c r="U11" s="77"/>
+      <c r="U11" s="69"/>
       <c r="V11" s="3" t="s">
         <v>30</v>
       </c>
@@ -5314,7 +5309,7 @@
       <c r="R12" s="37"/>
       <c r="S12" s="3"/>
       <c r="T12" s="41"/>
-      <c r="U12" s="76" t="s">
+      <c r="U12" s="68" t="s">
         <v>19</v>
       </c>
       <c r="V12" s="3" t="s">
@@ -5345,7 +5340,7 @@
       <c r="R13" s="9"/>
       <c r="S13" s="3"/>
       <c r="T13" s="41"/>
-      <c r="U13" s="77"/>
+      <c r="U13" s="69"/>
       <c r="V13" s="3" t="s">
         <v>37</v>
       </c>
@@ -5374,7 +5369,7 @@
       <c r="R14" s="37"/>
       <c r="S14" s="3"/>
       <c r="T14" s="41"/>
-      <c r="U14" s="77"/>
+      <c r="U14" s="69"/>
       <c r="V14" s="3" t="s">
         <v>36</v>
       </c>
@@ -5403,7 +5398,7 @@
       <c r="R15" s="37"/>
       <c r="S15" s="3"/>
       <c r="T15" s="13"/>
-      <c r="U15" s="77"/>
+      <c r="U15" s="69"/>
       <c r="V15" s="3" t="s">
         <v>24</v>
       </c>
@@ -5432,7 +5427,7 @@
       <c r="R16" s="37"/>
       <c r="S16" s="3"/>
       <c r="T16" s="13"/>
-      <c r="U16" s="78"/>
+      <c r="U16" s="70"/>
       <c r="V16" s="3" t="s">
         <v>25</v>
       </c>
@@ -6663,6 +6658,13 @@
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="U6:U11"/>
+    <mergeCell ref="U12:U16"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="U4:U5"/>
     <mergeCell ref="V4:V5"/>
     <mergeCell ref="A1:V1"/>
     <mergeCell ref="A2:D2"/>
@@ -6674,13 +6676,6 @@
     <mergeCell ref="M4:M5"/>
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
-    <mergeCell ref="U6:U11"/>
-    <mergeCell ref="U12:U16"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="U4:U5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
